--- a/pipe_cleaner/src/inventory/total_inventory_template.xlsx
+++ b/pipe_cleaner/src/inventory/total_inventory_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.ton\IdeaProjects\VSE_PipeCleaner\pipe_cleaner\src\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1092E7-D880-4217-BBAD-C60A737793A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A3A35-C9C5-49AB-B398-4759A948578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{5886D5A5-8442-43F9-8B4F-3F50593029FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5886D5A5-8442-43F9-8B4F-3F50593029FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,21 +839,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -862,7 +862,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="F2" s="34"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
@@ -918,7 +918,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="30" t="s">
@@ -931,7 +931,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
